--- a/shares.xlsx
+++ b/shares.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67smi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git trails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2817C7A-C9F2-4357-831F-215D20A4189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5A3161-16FF-44A6-8193-7479385C6C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D307DE57-B268-42AF-A697-F445E903250E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>jitenderkumarsharma2000@gmail.com</t>
+  </si>
+  <si>
+    <t>version1</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002911E4-023C-4998-8208-F9CE9B6F7F95}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,6 +1209,11 @@
         <v>9811943717</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A34" r:id="rId1" xr:uid="{C06B34A7-4F12-40F1-9190-5930016B96BA}"/>
